--- a/data/home.xlsx
+++ b/data/home.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EDDA0591-BDA8-44BE-893B-994BF5D2AE75}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3B61BDDF-0993-48B4-9036-23E4AD6B184D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="K5:N13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/home.xlsx
+++ b/data/home.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C26CD9EC-79D7-40A7-B141-693A441DC5BE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59B68FB8-6551-4BDC-A465-A90CCA4BA5EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
   <si>
     <t>device</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>low hot</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>priorities</t>
   </si>
 </sst>
 </file>
@@ -702,35 +711,35 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N11">
-        <f>SUM(N8:N10)</f>
+        <f t="shared" ref="N11:U11" si="0">SUM(N8:N10)</f>
         <v>45</v>
       </c>
       <c r="O11">
-        <f>SUM(O8:O10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P11">
-        <f>SUM(P8:P10)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="Q11">
-        <f>SUM(Q8:Q10)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="R11">
-        <f>SUM(R8:R10)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="S11">
-        <f>SUM(S8:S10)</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="T11">
-        <f>SUM(T8:T10)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="U11">
-        <f>SUM(U8:U10)</f>
+        <f t="shared" si="0"/>
         <v>348</v>
       </c>
     </row>
@@ -964,10 +973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E64C559-96C9-4C9D-9364-A81F64C51C9F}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,15 +996,15 @@
     <col min="13" max="13" width="2.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.88671875" style="4" customWidth="1"/>
-    <col min="16" max="18" width="8.88671875" style="4"/>
-    <col min="19" max="19" width="8.44140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="4"/>
-    <col min="21" max="21" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="4"/>
+    <col min="18" max="18" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
@@ -1027,7 +1036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1059,7 +1068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1091,7 +1100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1117,7 +1126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D5" s="4">
         <v>4</v>
       </c>
@@ -1136,20 +1145,29 @@
       <c r="N5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="s">
+      <c r="P5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="R5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D6" s="4">
         <v>5</v>
       </c>
@@ -1168,8 +1186,29 @@
       <c r="N6" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="4">
+        <v>8</v>
+      </c>
+      <c r="U6" s="4">
+        <v>10</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D7" s="4">
         <v>6</v>
       </c>
@@ -1188,8 +1227,29 @@
       <c r="N7" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
+        <v>10</v>
+      </c>
+      <c r="V7" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D8" s="4">
         <v>7</v>
       </c>
@@ -1202,16 +1262,58 @@
       <c r="H8" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="4">
+        <v>3</v>
+      </c>
+      <c r="U8" s="4">
+        <v>5</v>
+      </c>
+      <c r="V8" s="4">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D9" s="4">
         <v>8</v>
       </c>
       <c r="E9" s="5">
         <v>0.29166666666666702</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="4">
+        <v>2</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D10" s="4">
         <v>9</v>
       </c>
@@ -1219,8 +1321,29 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="4">
+        <v>5</v>
+      </c>
+      <c r="U10" s="4">
+        <v>10</v>
+      </c>
+      <c r="V10" s="4">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D11" s="4">
         <v>10</v>
       </c>
@@ -1228,7 +1351,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D12" s="4">
         <v>11</v>
       </c>
@@ -1236,7 +1359,7 @@
         <v>0.41666666666666702</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D13" s="4">
         <v>12</v>
       </c>
@@ -1244,7 +1367,7 @@
         <v>0.45833333333333298</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D14" s="4">
         <v>13</v>
       </c>
@@ -1252,63 +1375,105 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D15" s="4">
         <v>14</v>
       </c>
       <c r="E15" s="5">
         <v>0.54166666666666696</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D16" s="4">
         <v>15</v>
       </c>
       <c r="E16" s="5">
         <v>0.58333333333333304</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="R16" s="4">
+        <v>1</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D17" s="4">
         <v>16</v>
       </c>
       <c r="E17" s="5">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="R17" s="4">
+        <v>1</v>
+      </c>
+      <c r="S17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D18" s="4">
         <v>17</v>
       </c>
       <c r="E18" s="5">
         <v>0.66666666666666696</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="R18" s="4">
+        <v>1</v>
+      </c>
+      <c r="S18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D19" s="4">
         <v>18</v>
       </c>
       <c r="E19" s="5">
         <v>0.70833333333333304</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="R19" s="4">
+        <v>1</v>
+      </c>
+      <c r="S19" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D20" s="4">
         <v>19</v>
       </c>
       <c r="E20" s="5">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D21" s="4">
         <v>20</v>
       </c>
       <c r="E21" s="5">
         <v>0.79166666666666696</v>
       </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D22" s="4">
         <v>21</v>
       </c>
@@ -1316,7 +1481,7 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D23" s="4">
         <v>22</v>
       </c>
@@ -1324,7 +1489,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D24" s="4">
         <v>23</v>
       </c>
@@ -1332,7 +1497,7 @@
         <v>0.91666666666666696</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D25" s="4">
         <v>24</v>
       </c>

--- a/data/home.xlsx
+++ b/data/home.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59B68FB8-6551-4BDC-A465-A90CCA4BA5EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE596EA6-085A-4B05-A516-21097C81F440}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="48">
   <si>
     <t>device</t>
   </si>
@@ -150,6 +151,21 @@
   </si>
   <si>
     <t>priorities</t>
+  </si>
+  <si>
+    <t>weather_type</t>
+  </si>
+  <si>
+    <t>early morning</t>
+  </si>
+  <si>
+    <t>midnight</t>
+  </si>
+  <si>
+    <t>priotiy</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -975,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E64C559-96C9-4C9D-9364-A81F64C51C9F}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1509,4 +1525,1769 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A55FD11-B1DA-4CBF-9482-8027348840F6}">
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>52</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>49</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>13</v>
+      </c>
+      <c r="Q3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4">
+        <v>17</v>
+      </c>
+      <c r="Q4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>45</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5">
+        <v>14</v>
+      </c>
+      <c r="Q5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>53</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>67</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9">
+        <v>13</v>
+      </c>
+      <c r="Q9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>66</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10">
+        <v>17</v>
+      </c>
+      <c r="Q10">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>68</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11">
+        <v>14</v>
+      </c>
+      <c r="Q11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>69</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>35</v>
+      </c>
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>71</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>36</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>97</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15">
+        <v>13</v>
+      </c>
+      <c r="Q15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>96</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16">
+        <v>17</v>
+      </c>
+      <c r="Q16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>98</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>22</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17">
+        <v>14</v>
+      </c>
+      <c r="Q17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>99</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>23</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>101</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>24</v>
+      </c>
+      <c r="M19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>41</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>54</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>38</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <v>55</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21">
+        <v>13</v>
+      </c>
+      <c r="Q21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>37</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>56</v>
+      </c>
+      <c r="M22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22">
+        <v>17</v>
+      </c>
+      <c r="Q22">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>39</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>57</v>
+      </c>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23">
+        <v>14</v>
+      </c>
+      <c r="Q23">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>58</v>
+      </c>
+      <c r="M24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>42</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>59</v>
+      </c>
+      <c r="M25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>29</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26">
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <v>72</v>
+      </c>
+      <c r="M26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
+      <c r="Q26">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <v>73</v>
+      </c>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>13</v>
+      </c>
+      <c r="Q27">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28">
+        <v>12</v>
+      </c>
+      <c r="K28">
+        <v>74</v>
+      </c>
+      <c r="M28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28">
+        <v>17</v>
+      </c>
+      <c r="Q28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>75</v>
+      </c>
+      <c r="M29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29">
+        <v>14</v>
+      </c>
+      <c r="Q29">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30">
+        <v>12</v>
+      </c>
+      <c r="K30">
+        <v>76</v>
+      </c>
+      <c r="M30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <v>77</v>
+      </c>
+      <c r="M31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>17</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32">
+        <v>15</v>
+      </c>
+      <c r="K32">
+        <v>90</v>
+      </c>
+      <c r="M32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32">
+        <v>10</v>
+      </c>
+      <c r="Q32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>14</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33">
+        <v>15</v>
+      </c>
+      <c r="K33">
+        <v>91</v>
+      </c>
+      <c r="M33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33">
+        <v>13</v>
+      </c>
+      <c r="Q33">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>13</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34">
+        <v>15</v>
+      </c>
+      <c r="K34">
+        <v>92</v>
+      </c>
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34">
+        <v>17</v>
+      </c>
+      <c r="Q34">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>15</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35">
+        <v>15</v>
+      </c>
+      <c r="K35">
+        <v>93</v>
+      </c>
+      <c r="M35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O35" t="s">
+        <v>22</v>
+      </c>
+      <c r="P35">
+        <v>14</v>
+      </c>
+      <c r="Q35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>16</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36">
+        <v>15</v>
+      </c>
+      <c r="K36">
+        <v>94</v>
+      </c>
+      <c r="M36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37">
+        <v>15</v>
+      </c>
+      <c r="K37">
+        <v>95</v>
+      </c>
+      <c r="M37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/home.xlsx
+++ b/data/home.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE596EA6-085A-4B05-A516-21097C81F440}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75F2E4A7-5606-4CAF-A96F-CC52082BE94B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="47">
   <si>
     <t>device</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>midnight</t>
-  </si>
-  <si>
-    <t>priotiy</t>
   </si>
   <si>
     <t>order</t>
@@ -1529,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A55FD11-B1DA-4CBF-9482-8027348840F6}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1547,7 +1544,7 @@
     <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1561,40 +1558,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1610,38 +1577,8 @@
       <c r="E2">
         <v>52</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2">
-        <v>10</v>
-      </c>
-      <c r="Q2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1657,38 +1594,8 @@
       <c r="E3">
         <v>49</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>43</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3">
-        <v>13</v>
-      </c>
-      <c r="Q3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1704,38 +1611,8 @@
       <c r="E4">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <v>44</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4">
-        <v>17</v>
-      </c>
-      <c r="Q4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1751,38 +1628,8 @@
       <c r="E5">
         <v>50</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5">
-        <v>14</v>
-      </c>
-      <c r="Q5">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1798,38 +1645,8 @@
       <c r="E6">
         <v>51</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6">
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <v>46</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1845,38 +1662,8 @@
       <c r="E7">
         <v>53</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7">
-        <v>7</v>
-      </c>
-      <c r="K7">
-        <v>47</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1892,38 +1679,8 @@
       <c r="E8">
         <v>70</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>31</v>
-      </c>
-      <c r="M8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8">
-        <v>10</v>
-      </c>
-      <c r="Q8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1939,38 +1696,8 @@
       <c r="E9">
         <v>67</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>32</v>
-      </c>
-      <c r="M9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9">
-        <v>13</v>
-      </c>
-      <c r="Q9">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1986,38 +1713,8 @@
       <c r="E10">
         <v>66</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>33</v>
-      </c>
-      <c r="M10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10">
-        <v>17</v>
-      </c>
-      <c r="Q10">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2033,38 +1730,8 @@
       <c r="E11">
         <v>68</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>34</v>
-      </c>
-      <c r="M11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11">
-        <v>14</v>
-      </c>
-      <c r="Q11">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2080,38 +1747,8 @@
       <c r="E12">
         <v>69</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>35</v>
-      </c>
-      <c r="M12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2127,38 +1764,8 @@
       <c r="E13">
         <v>71</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>36</v>
-      </c>
-      <c r="M13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" t="s">
-        <v>45</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2174,38 +1781,8 @@
       <c r="E14">
         <v>100</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="K14">
-        <v>19</v>
-      </c>
-      <c r="M14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14">
-        <v>10</v>
-      </c>
-      <c r="Q14">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2221,38 +1798,8 @@
       <c r="E15">
         <v>97</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>20</v>
-      </c>
-      <c r="M15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15">
-        <v>13</v>
-      </c>
-      <c r="Q15">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2268,38 +1815,8 @@
       <c r="E16">
         <v>96</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>21</v>
-      </c>
-      <c r="M16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16">
-        <v>17</v>
-      </c>
-      <c r="Q16">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -2315,38 +1832,8 @@
       <c r="E17">
         <v>98</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>22</v>
-      </c>
-      <c r="M17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O17" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17">
-        <v>14</v>
-      </c>
-      <c r="Q17">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2362,38 +1849,8 @@
       <c r="E18">
         <v>99</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <v>23</v>
-      </c>
-      <c r="M18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -2409,38 +1866,8 @@
       <c r="E19">
         <v>101</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <v>24</v>
-      </c>
-      <c r="M19" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" t="s">
-        <v>45</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2456,38 +1883,8 @@
       <c r="E20">
         <v>41</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20">
-        <v>9</v>
-      </c>
-      <c r="K20">
-        <v>54</v>
-      </c>
-      <c r="M20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" t="s">
-        <v>44</v>
-      </c>
-      <c r="P20">
-        <v>10</v>
-      </c>
-      <c r="Q20">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2503,38 +1900,8 @@
       <c r="E21">
         <v>38</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21">
-        <v>9</v>
-      </c>
-      <c r="K21">
-        <v>55</v>
-      </c>
-      <c r="M21" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21">
-        <v>13</v>
-      </c>
-      <c r="Q21">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2550,38 +1917,8 @@
       <c r="E22">
         <v>37</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22">
-        <v>9</v>
-      </c>
-      <c r="K22">
-        <v>56</v>
-      </c>
-      <c r="M22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22">
-        <v>17</v>
-      </c>
-      <c r="Q22">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2597,38 +1934,8 @@
       <c r="E23">
         <v>39</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23">
-        <v>9</v>
-      </c>
-      <c r="K23">
-        <v>57</v>
-      </c>
-      <c r="M23" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23">
-        <v>14</v>
-      </c>
-      <c r="Q23">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2644,38 +1951,8 @@
       <c r="E24">
         <v>40</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24">
-        <v>9</v>
-      </c>
-      <c r="K24">
-        <v>58</v>
-      </c>
-      <c r="M24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2691,38 +1968,8 @@
       <c r="E25">
         <v>42</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25">
-        <v>9</v>
-      </c>
-      <c r="K25">
-        <v>59</v>
-      </c>
-      <c r="M25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O25" t="s">
-        <v>45</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2738,38 +1985,8 @@
       <c r="E26">
         <v>29</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26">
-        <v>12</v>
-      </c>
-      <c r="K26">
-        <v>72</v>
-      </c>
-      <c r="M26" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O26" t="s">
-        <v>44</v>
-      </c>
-      <c r="P26">
-        <v>10</v>
-      </c>
-      <c r="Q26">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2785,38 +2002,8 @@
       <c r="E27">
         <v>26</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27">
-        <v>12</v>
-      </c>
-      <c r="K27">
-        <v>73</v>
-      </c>
-      <c r="M27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O27" t="s">
-        <v>25</v>
-      </c>
-      <c r="P27">
-        <v>13</v>
-      </c>
-      <c r="Q27">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2832,38 +2019,8 @@
       <c r="E28">
         <v>25</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28">
-        <v>12</v>
-      </c>
-      <c r="K28">
-        <v>74</v>
-      </c>
-      <c r="M28" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O28" t="s">
-        <v>23</v>
-      </c>
-      <c r="P28">
-        <v>17</v>
-      </c>
-      <c r="Q28">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2879,38 +2036,8 @@
       <c r="E29">
         <v>27</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29">
-        <v>12</v>
-      </c>
-      <c r="K29">
-        <v>75</v>
-      </c>
-      <c r="M29" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P29">
-        <v>14</v>
-      </c>
-      <c r="Q29">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2926,38 +2053,8 @@
       <c r="E30">
         <v>28</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30">
-        <v>12</v>
-      </c>
-      <c r="K30">
-        <v>76</v>
-      </c>
-      <c r="M30" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O30" t="s">
-        <v>24</v>
-      </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2973,38 +2070,8 @@
       <c r="E31">
         <v>30</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" t="s">
-        <v>45</v>
-      </c>
-      <c r="J31">
-        <v>12</v>
-      </c>
-      <c r="K31">
-        <v>77</v>
-      </c>
-      <c r="M31" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O31" t="s">
-        <v>45</v>
-      </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -3020,38 +2087,8 @@
       <c r="E32">
         <v>17</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32">
-        <v>15</v>
-      </c>
-      <c r="K32">
-        <v>90</v>
-      </c>
-      <c r="M32" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O32" t="s">
-        <v>44</v>
-      </c>
-      <c r="P32">
-        <v>10</v>
-      </c>
-      <c r="Q32">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -3067,38 +2104,8 @@
       <c r="E33">
         <v>14</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33">
-        <v>15</v>
-      </c>
-      <c r="K33">
-        <v>91</v>
-      </c>
-      <c r="M33" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O33" t="s">
-        <v>25</v>
-      </c>
-      <c r="P33">
-        <v>13</v>
-      </c>
-      <c r="Q33">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -3114,38 +2121,8 @@
       <c r="E34">
         <v>13</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34">
-        <v>15</v>
-      </c>
-      <c r="K34">
-        <v>92</v>
-      </c>
-      <c r="M34" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O34" t="s">
-        <v>23</v>
-      </c>
-      <c r="P34">
-        <v>17</v>
-      </c>
-      <c r="Q34">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -3161,38 +2138,8 @@
       <c r="E35">
         <v>15</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35">
-        <v>15</v>
-      </c>
-      <c r="K35">
-        <v>93</v>
-      </c>
-      <c r="M35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O35" t="s">
-        <v>22</v>
-      </c>
-      <c r="P35">
-        <v>14</v>
-      </c>
-      <c r="Q35">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -3208,38 +2155,8 @@
       <c r="E36">
         <v>16</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36">
-        <v>15</v>
-      </c>
-      <c r="K36">
-        <v>94</v>
-      </c>
-      <c r="M36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O36" t="s">
-        <v>24</v>
-      </c>
-      <c r="P36">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -3255,34 +2172,1228 @@
       <c r="E37">
         <v>18</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="4" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
         <v>34</v>
       </c>
-      <c r="I37" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
         <v>45</v>
       </c>
-      <c r="J37">
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63">
+        <v>12</v>
+      </c>
+      <c r="E63">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67">
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68">
         <v>15</v>
       </c>
-      <c r="K37">
+      <c r="E68">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69">
+        <v>15</v>
+      </c>
+      <c r="E69">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70">
+        <v>15</v>
+      </c>
+      <c r="E70">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71">
+        <v>15</v>
+      </c>
+      <c r="E71">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73">
+        <v>15</v>
+      </c>
+      <c r="E73">
         <v>95</v>
       </c>
-      <c r="M37" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="4" t="s">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75">
+        <v>13</v>
+      </c>
+      <c r="E75">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76">
+        <v>17</v>
+      </c>
+      <c r="E76">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77">
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81">
+        <v>13</v>
+      </c>
+      <c r="E81">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82">
+        <v>17</v>
+      </c>
+      <c r="E82">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83">
+        <v>14</v>
+      </c>
+      <c r="E83">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87">
+        <v>13</v>
+      </c>
+      <c r="E87">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88">
+        <v>17</v>
+      </c>
+      <c r="E88">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89">
+        <v>14</v>
+      </c>
+      <c r="E89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93">
+        <v>13</v>
+      </c>
+      <c r="E93">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94">
+        <v>17</v>
+      </c>
+      <c r="E94">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95">
+        <v>14</v>
+      </c>
+      <c r="E95">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98">
+        <v>10</v>
+      </c>
+      <c r="E98">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99">
+        <v>13</v>
+      </c>
+      <c r="E99">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100">
+        <v>17</v>
+      </c>
+      <c r="E100">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101">
+        <v>14</v>
+      </c>
+      <c r="E101">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O37" t="s">
+      <c r="C104" t="s">
+        <v>44</v>
+      </c>
+      <c r="D104">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105">
+        <v>13</v>
+      </c>
+      <c r="E105">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106">
+        <v>17</v>
+      </c>
+      <c r="E106">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107">
+        <v>14</v>
+      </c>
+      <c r="E107">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" t="s">
         <v>45</v>
       </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-      <c r="Q37">
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
         <v>2</v>
       </c>
     </row>

--- a/data/home.xlsx
+++ b/data/home.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75F2E4A7-5606-4CAF-A96F-CC52082BE94B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D145B48-C41B-4F58-8F24-2D7B94ED7609}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="48">
   <si>
     <t>device</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>out</t>
   </si>
 </sst>
 </file>
@@ -1526,16 +1529,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A55FD11-B1DA-4CBF-9482-8027348840F6}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
@@ -1544,7 +1548,7 @@
     <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1560,8 +1564,11 @@
       <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1577,8 +1584,11 @@
       <c r="E2">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1594,8 +1604,11 @@
       <c r="E3">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1611,8 +1624,11 @@
       <c r="E4">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1628,8 +1644,11 @@
       <c r="E5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1645,8 +1664,11 @@
       <c r="E6">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1662,8 +1684,11 @@
       <c r="E7">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1679,8 +1704,11 @@
       <c r="E8">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1696,8 +1724,11 @@
       <c r="E9">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1713,8 +1744,11 @@
       <c r="E10">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1730,8 +1764,11 @@
       <c r="E11">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1747,8 +1784,11 @@
       <c r="E12">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1764,8 +1804,11 @@
       <c r="E13">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1781,8 +1824,11 @@
       <c r="E14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1798,8 +1844,11 @@
       <c r="E15">
         <v>97</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1815,8 +1864,11 @@
       <c r="E16">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1832,8 +1884,11 @@
       <c r="E17">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1849,8 +1904,11 @@
       <c r="E18">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1866,8 +1924,11 @@
       <c r="E19">
         <v>101</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1883,8 +1944,11 @@
       <c r="E20">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1900,8 +1964,11 @@
       <c r="E21">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1917,8 +1984,11 @@
       <c r="E22">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1934,8 +2004,11 @@
       <c r="E23">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1951,8 +2024,11 @@
       <c r="E24">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1968,8 +2044,11 @@
       <c r="E25">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1985,8 +2064,11 @@
       <c r="E26">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2002,8 +2084,11 @@
       <c r="E27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2019,8 +2104,11 @@
       <c r="E28">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2036,8 +2124,11 @@
       <c r="E29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2053,8 +2144,11 @@
       <c r="E30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2070,8 +2164,11 @@
       <c r="E31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2087,8 +2184,11 @@
       <c r="E32">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -2104,8 +2204,11 @@
       <c r="E33">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2121,8 +2224,11 @@
       <c r="E34">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2138,8 +2244,11 @@
       <c r="E35">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2155,8 +2264,11 @@
       <c r="E36">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2172,8 +2284,11 @@
       <c r="E37">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -2189,8 +2304,11 @@
       <c r="E38">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2206,8 +2324,11 @@
       <c r="E39">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -2223,8 +2344,11 @@
       <c r="E40">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -2240,8 +2364,11 @@
       <c r="E41">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -2257,8 +2384,11 @@
       <c r="E42">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2274,8 +2404,11 @@
       <c r="E43">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -2291,8 +2424,11 @@
       <c r="E44">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2308,8 +2444,11 @@
       <c r="E45">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -2325,8 +2464,11 @@
       <c r="E46">
         <v>33</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2342,8 +2484,11 @@
       <c r="E47">
         <v>34</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -2359,8 +2504,11 @@
       <c r="E48">
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -2376,8 +2524,11 @@
       <c r="E49">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
@@ -2393,8 +2544,11 @@
       <c r="E50">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>7</v>
       </c>
@@ -2410,8 +2564,11 @@
       <c r="E51">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2427,8 +2584,11 @@
       <c r="E52">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
@@ -2444,8 +2604,11 @@
       <c r="E53">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2461,8 +2624,11 @@
       <c r="E54">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
@@ -2478,8 +2644,11 @@
       <c r="E55">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -2495,8 +2664,11 @@
       <c r="E56">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -2512,8 +2684,11 @@
       <c r="E57">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -2529,8 +2704,11 @@
       <c r="E58">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -2546,8 +2724,11 @@
       <c r="E59">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -2563,8 +2744,11 @@
       <c r="E60">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>7</v>
       </c>
@@ -2580,8 +2764,11 @@
       <c r="E61">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -2597,8 +2784,11 @@
       <c r="E62">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
@@ -2614,8 +2804,11 @@
       <c r="E63">
         <v>73</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -2631,8 +2824,11 @@
       <c r="E64">
         <v>74</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>7</v>
       </c>
@@ -2648,8 +2844,11 @@
       <c r="E65">
         <v>75</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -2665,8 +2864,11 @@
       <c r="E66">
         <v>76</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -2682,8 +2884,11 @@
       <c r="E67">
         <v>77</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -2699,8 +2904,11 @@
       <c r="E68">
         <v>90</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -2716,8 +2924,11 @@
       <c r="E69">
         <v>91</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>7</v>
       </c>
@@ -2733,8 +2944,11 @@
       <c r="E70">
         <v>92</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
@@ -2750,8 +2964,11 @@
       <c r="E71">
         <v>93</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>7</v>
       </c>
@@ -2767,8 +2984,11 @@
       <c r="E72">
         <v>94</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -2784,8 +3004,11 @@
       <c r="E73">
         <v>95</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -2801,8 +3024,11 @@
       <c r="E74">
         <v>65</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -2818,8 +3044,11 @@
       <c r="E75">
         <v>83</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -2835,8 +3064,11 @@
       <c r="E76">
         <v>107</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -2852,8 +3084,11 @@
       <c r="E77">
         <v>89</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -2869,8 +3104,11 @@
       <c r="E78">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -2886,8 +3124,11 @@
       <c r="E79">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -2903,8 +3144,11 @@
       <c r="E80">
         <v>64</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>21</v>
       </c>
@@ -2920,8 +3164,11 @@
       <c r="E81">
         <v>82</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -2937,8 +3184,11 @@
       <c r="E82">
         <v>106</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -2954,8 +3204,11 @@
       <c r="E83">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -2971,8 +3224,11 @@
       <c r="E84">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -2988,8 +3244,11 @@
       <c r="E85">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -3005,8 +3264,11 @@
       <c r="E86">
         <v>63</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -3022,8 +3284,11 @@
       <c r="E87">
         <v>81</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -3039,8 +3304,11 @@
       <c r="E88">
         <v>105</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -3056,8 +3324,11 @@
       <c r="E89">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -3073,8 +3344,11 @@
       <c r="E90">
         <v>11</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -3090,8 +3364,11 @@
       <c r="E91">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -3107,8 +3384,11 @@
       <c r="E92">
         <v>62</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -3124,8 +3404,11 @@
       <c r="E93">
         <v>80</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -3141,8 +3424,11 @@
       <c r="E94">
         <v>104</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -3158,8 +3444,11 @@
       <c r="E95">
         <v>86</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -3175,8 +3464,11 @@
       <c r="E96">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -3192,8 +3484,11 @@
       <c r="E97">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -3209,8 +3504,11 @@
       <c r="E98">
         <v>61</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -3226,8 +3524,11 @@
       <c r="E99">
         <v>79</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -3243,8 +3544,11 @@
       <c r="E100">
         <v>103</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>21</v>
       </c>
@@ -3260,8 +3564,11 @@
       <c r="E101">
         <v>85</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -3277,8 +3584,11 @@
       <c r="E102">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>21</v>
       </c>
@@ -3294,8 +3604,11 @@
       <c r="E103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -3311,8 +3624,11 @@
       <c r="E104">
         <v>60</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>21</v>
       </c>
@@ -3328,8 +3644,11 @@
       <c r="E105">
         <v>78</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -3345,8 +3664,11 @@
       <c r="E106">
         <v>102</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -3362,8 +3684,11 @@
       <c r="E107">
         <v>84</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -3379,8 +3704,11 @@
       <c r="E108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -3395,6 +3723,9 @@
       </c>
       <c r="E109">
         <v>2</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/home.xlsx
+++ b/data/home.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D145B48-C41B-4F58-8F24-2D7B94ED7609}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{96E4D253-384C-49CE-A427-DB8271FBCC47}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="47">
   <si>
     <t>device</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>order</t>
-  </si>
-  <si>
-    <t>out</t>
   </si>
 </sst>
 </file>
@@ -1529,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A55FD11-B1DA-4CBF-9482-8027348840F6}">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1548,7 +1545,7 @@
     <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1564,11 +1561,8 @@
       <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1584,11 +1578,8 @@
       <c r="E2">
         <v>52</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1604,11 +1595,8 @@
       <c r="E3">
         <v>49</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1624,11 +1612,8 @@
       <c r="E4">
         <v>48</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1644,11 +1629,8 @@
       <c r="E5">
         <v>50</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1664,11 +1646,8 @@
       <c r="E6">
         <v>51</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1684,11 +1663,8 @@
       <c r="E7">
         <v>53</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1704,11 +1680,8 @@
       <c r="E8">
         <v>70</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1724,11 +1697,8 @@
       <c r="E9">
         <v>67</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1744,11 +1714,8 @@
       <c r="E10">
         <v>66</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1764,11 +1731,8 @@
       <c r="E11">
         <v>68</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1784,11 +1748,8 @@
       <c r="E12">
         <v>69</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1804,11 +1765,8 @@
       <c r="E13">
         <v>71</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1824,11 +1782,8 @@
       <c r="E14">
         <v>100</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1844,11 +1799,8 @@
       <c r="E15">
         <v>97</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1864,11 +1816,8 @@
       <c r="E16">
         <v>96</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1884,11 +1833,8 @@
       <c r="E17">
         <v>98</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1904,11 +1850,8 @@
       <c r="E18">
         <v>99</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1924,11 +1867,8 @@
       <c r="E19">
         <v>101</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1944,11 +1884,8 @@
       <c r="E20">
         <v>41</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1964,11 +1901,8 @@
       <c r="E21">
         <v>38</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1984,11 +1918,8 @@
       <c r="E22">
         <v>37</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2004,11 +1935,8 @@
       <c r="E23">
         <v>39</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2024,11 +1952,8 @@
       <c r="E24">
         <v>40</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2044,11 +1969,8 @@
       <c r="E25">
         <v>42</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2064,11 +1986,8 @@
       <c r="E26">
         <v>29</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2084,11 +2003,8 @@
       <c r="E27">
         <v>26</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2104,11 +2020,8 @@
       <c r="E28">
         <v>25</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2124,11 +2037,8 @@
       <c r="E29">
         <v>27</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2144,11 +2054,8 @@
       <c r="E30">
         <v>28</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2164,11 +2071,8 @@
       <c r="E31">
         <v>30</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2184,11 +2088,8 @@
       <c r="E32">
         <v>17</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -2204,11 +2105,8 @@
       <c r="E33">
         <v>14</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2224,11 +2122,8 @@
       <c r="E34">
         <v>13</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2244,11 +2139,8 @@
       <c r="E35">
         <v>15</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2264,11 +2156,8 @@
       <c r="E36">
         <v>16</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2284,11 +2173,8 @@
       <c r="E37">
         <v>18</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -2304,11 +2190,8 @@
       <c r="E38">
         <v>42</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2324,11 +2207,8 @@
       <c r="E39">
         <v>43</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -2344,11 +2224,8 @@
       <c r="E40">
         <v>44</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -2364,11 +2241,8 @@
       <c r="E41">
         <v>45</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -2384,11 +2258,8 @@
       <c r="E42">
         <v>46</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -2404,11 +2275,8 @@
       <c r="E43">
         <v>47</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -2424,11 +2292,8 @@
       <c r="E44">
         <v>31</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2444,11 +2309,8 @@
       <c r="E45">
         <v>32</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -2464,11 +2326,8 @@
       <c r="E46">
         <v>33</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2484,11 +2343,8 @@
       <c r="E47">
         <v>34</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -2504,11 +2360,8 @@
       <c r="E48">
         <v>35</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -2524,11 +2377,8 @@
       <c r="E49">
         <v>36</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
@@ -2544,11 +2394,8 @@
       <c r="E50">
         <v>19</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>7</v>
       </c>
@@ -2564,11 +2411,8 @@
       <c r="E51">
         <v>20</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2584,11 +2428,8 @@
       <c r="E52">
         <v>21</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
@@ -2604,11 +2445,8 @@
       <c r="E53">
         <v>22</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2624,11 +2462,8 @@
       <c r="E54">
         <v>23</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
@@ -2644,11 +2479,8 @@
       <c r="E55">
         <v>24</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -2664,11 +2496,8 @@
       <c r="E56">
         <v>54</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -2684,11 +2513,8 @@
       <c r="E57">
         <v>55</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -2704,11 +2530,8 @@
       <c r="E58">
         <v>56</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -2724,11 +2547,8 @@
       <c r="E59">
         <v>57</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -2744,11 +2564,8 @@
       <c r="E60">
         <v>58</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>7</v>
       </c>
@@ -2764,11 +2581,8 @@
       <c r="E61">
         <v>59</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -2784,11 +2598,8 @@
       <c r="E62">
         <v>72</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
@@ -2804,11 +2615,8 @@
       <c r="E63">
         <v>73</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -2824,11 +2632,8 @@
       <c r="E64">
         <v>74</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>7</v>
       </c>
@@ -2844,11 +2649,8 @@
       <c r="E65">
         <v>75</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -2864,11 +2666,8 @@
       <c r="E66">
         <v>76</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -2884,11 +2683,8 @@
       <c r="E67">
         <v>77</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -2904,11 +2700,8 @@
       <c r="E68">
         <v>90</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -2924,11 +2717,8 @@
       <c r="E69">
         <v>91</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>7</v>
       </c>
@@ -2944,11 +2734,8 @@
       <c r="E70">
         <v>92</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
@@ -2964,11 +2751,8 @@
       <c r="E71">
         <v>93</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>7</v>
       </c>
@@ -2984,11 +2768,8 @@
       <c r="E72">
         <v>94</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -3004,11 +2785,8 @@
       <c r="E73">
         <v>95</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -3024,11 +2802,8 @@
       <c r="E74">
         <v>65</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -3044,11 +2819,8 @@
       <c r="E75">
         <v>83</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -3064,11 +2836,8 @@
       <c r="E76">
         <v>107</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -3084,11 +2853,8 @@
       <c r="E77">
         <v>89</v>
       </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -3104,11 +2870,8 @@
       <c r="E78">
         <v>7</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -3124,11 +2887,8 @@
       <c r="E79">
         <v>8</v>
       </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -3144,11 +2904,8 @@
       <c r="E80">
         <v>64</v>
       </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>21</v>
       </c>
@@ -3164,11 +2921,8 @@
       <c r="E81">
         <v>82</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -3184,11 +2938,8 @@
       <c r="E82">
         <v>106</v>
       </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -3204,11 +2955,8 @@
       <c r="E83">
         <v>88</v>
       </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -3224,11 +2972,8 @@
       <c r="E84">
         <v>9</v>
       </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -3244,11 +2989,8 @@
       <c r="E85">
         <v>10</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -3264,11 +3006,8 @@
       <c r="E86">
         <v>63</v>
       </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -3284,11 +3023,8 @@
       <c r="E87">
         <v>81</v>
       </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -3304,11 +3040,8 @@
       <c r="E88">
         <v>105</v>
       </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -3324,11 +3057,8 @@
       <c r="E89">
         <v>87</v>
       </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -3344,11 +3074,8 @@
       <c r="E90">
         <v>11</v>
       </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -3364,11 +3091,8 @@
       <c r="E91">
         <v>12</v>
       </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -3384,11 +3108,8 @@
       <c r="E92">
         <v>62</v>
       </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -3404,11 +3125,8 @@
       <c r="E93">
         <v>80</v>
       </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -3424,11 +3142,8 @@
       <c r="E94">
         <v>104</v>
       </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -3444,11 +3159,8 @@
       <c r="E95">
         <v>86</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -3464,11 +3176,8 @@
       <c r="E96">
         <v>5</v>
       </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -3484,11 +3193,8 @@
       <c r="E97">
         <v>6</v>
       </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -3504,11 +3210,8 @@
       <c r="E98">
         <v>61</v>
       </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -3524,11 +3227,8 @@
       <c r="E99">
         <v>79</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -3544,11 +3244,8 @@
       <c r="E100">
         <v>103</v>
       </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>21</v>
       </c>
@@ -3564,11 +3261,8 @@
       <c r="E101">
         <v>85</v>
       </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -3584,11 +3278,8 @@
       <c r="E102">
         <v>3</v>
       </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>21</v>
       </c>
@@ -3604,11 +3295,8 @@
       <c r="E103">
         <v>4</v>
       </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -3624,11 +3312,8 @@
       <c r="E104">
         <v>60</v>
       </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>21</v>
       </c>
@@ -3644,11 +3329,8 @@
       <c r="E105">
         <v>78</v>
       </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -3664,11 +3346,8 @@
       <c r="E106">
         <v>102</v>
       </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -3684,11 +3363,8 @@
       <c r="E107">
         <v>84</v>
       </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -3704,11 +3380,8 @@
       <c r="E108">
         <v>1</v>
       </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -3723,9 +3396,6 @@
       </c>
       <c r="E109">
         <v>2</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
